--- a/news_data/2016_01.xlsx
+++ b/news_data/2016_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,93 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 등 관광발전 1등급 지자체 선정</t>
+  </si>
+  <si>
+    <t>제주도, 한파주의보에 제주공항-도로 모두 꽁꽁…관광객 ‘불편’</t>
+  </si>
+  <si>
+    <t>하늘길·바닷길 끊긴 제주도…관광객 때아닌 노숙</t>
+  </si>
+  <si>
+    <t>‘32년만 폭설’ 도민·관광객 보호하라…제주도 전 공직자 구슬땀</t>
+  </si>
+  <si>
+    <t>제주공항 운항중단, 9만여 명 관광객 제주도서 발 묶여 '운항중단 언제까지?'</t>
+  </si>
+  <si>
+    <t>제주도, 투자유치 관광개발서 신성장산업으로 '유턴'</t>
+  </si>
+  <si>
+    <t>제주도, 관광객-도민 불편최소화 설 연휴 종합대책 추진</t>
+  </si>
+  <si>
+    <t>‘관광 1번지’ 제주도내 택시 서비스 질 향상된다</t>
+  </si>
+  <si>
+    <t>제주도, 공항체류객에 관광버스와 간식 제공</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥지구 요건 2천만 달러 이상 투자로 강화</t>
+  </si>
+  <si>
+    <t>제주도체육회, 문화체육관광부장관 표창 19명</t>
+  </si>
+  <si>
+    <t>제주도, 제주공항 결항사태 발묶인 관광객에 간식 제공</t>
+  </si>
+  <si>
+    <t>제주도, 공항서 오갈데 없는 관광객에 스티로폼 지급</t>
+  </si>
+  <si>
+    <t>제주도-일본 홋카이도 관광 교류 적극 추진키로</t>
+  </si>
+  <si>
+    <t>제주도 체류객 2만7천명 육지로,내일까지 제주도 관광객 체류문제 해결?</t>
+  </si>
+  <si>
+    <t>관광객 2만1천명 26일 새벽까지 제주도 탈출</t>
+  </si>
+  <si>
+    <t>제주도, 전지훈련 등 스포츠관광객 유치 시동</t>
+  </si>
+  <si>
+    <t>베트남 관광객 50여명 제주도서 실종?</t>
+  </si>
+  <si>
+    <t>제주도·관광협회, 관광사업자 경영 컨설팅 지원</t>
+  </si>
+  <si>
+    <t>제주도 관광 온 베트남인 46명 사흘째 잠적</t>
+  </si>
+  <si>
+    <t>'데이즈호텔 제주시티' 분양형 호텔! 제주도 관광수요 품은 알짜 투자처!</t>
+  </si>
+  <si>
+    <t>제주도 스마트관광 서비스 기반 구축된다</t>
+  </si>
+  <si>
+    <t>제주도-홋카이도 12일 관광교류 등 협약</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달의 Best 관광인...오영희씨 선정</t>
+  </si>
+  <si>
+    <t>제주도 관광산업 질적성장 유도 5대지표 관리</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 일본 관광객 활성화 협의회</t>
+  </si>
+  <si>
+    <t>제주도 크루즈 관광객 보안검색 1시간이내 단축</t>
+  </si>
+  <si>
+    <t>제주도관광공사, '겨울 한라산 등반' 레저 관광객 올해 첫 유치</t>
+  </si>
+  <si>
+    <t>제주도-도관광협회, 새해 첫 방문 관광객 환영행사</t>
+  </si>
+  <si>
     <t>관광과 투자 1번지 제주도, 이제는 주택임대관리업시대다</t>
   </si>
   <si>
@@ -52,22 +139,79 @@
     <t>성산일출봉 맛집 '해월향' 제주도흑돼지 현지인과 관광객들에게 인기</t>
   </si>
   <si>
-    <t>관광과 투자 1번지 제주도, 이제는 주택임대관리업시대다 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 관광과 투자 1번지 제주도, 이제는 주택임대관리업시대다 제주도 부동산전문가, 스마트하우스 제주1호점 진성효 대표를 만나다 민병희 기자 입력 : 2016.01.04 11:22:50   수정 : 2016.01.04 13:23:08 스마트하우스 제주1호점 진성효 대표(이하 ‘진 대표’)를 제주의 강남이란 노형동에서 만났다. 노형동은 일찍이 사시패스의 산실로서 주거와 교육, 상업 및 호텔 등 복합도시로서 도내 최고 랜드마크 지역이다. 노형동과 인접한 연동 등 신제주 일대는 유커와 크루즈 관광의 최고 명소인 롯데시티와 신라면세점, 인센티브 관광의 상징인 바오젠거리(차없는 거리)를 만들만큼 국내외적으로 관광과 투자, 이주 1번지라 해도 과언이 아니다. 국내 최대 도심 복합리조트 드림타워의 착공을 비롯하여 신 제주 일대와 인접한 연예인 투자1번지 애월읍은 중국성 개발리조트와 타운하우스 개발압력이 거세지며 주택과 수익용부동산 등 전국 최고의 수익률을 과시하며 주거난도 심각한 편이다. 진 대표는 진기록도 많다. 제1회라는 공인중개사, 부동산권리분석사, 부동산경매분석사 자격시험 등을 합격하였고, 초대 전국 부동산대학원 총연합회 학술교육위원장(前)과 중국경매 국내 첫 매경칼럼 소개 그리고 제주한라대 경매상담사과정 도내 첫 진행도 한 바 있다. 최근에는 매경부동산자산관리사 교육과정과 스마트하우스 주택임대관리 실무아카데미도 수료했다. 그 외에도 경매야 한판 붙자 등 다수 출간을 비롯하여 매일경제 등 언론매체 다수 집필활동, 명지대학원/제주대/경찰청/교육청 출강 등 두루 경력을 갖춘 전국구 부동산전문가다. 지금은 도내에서는 처음으로 다양한 경륜을 기반으로 공동중개/공동개발/분양과 수익용부동산의 임대관리 대행 및 경공매 등 부동산자산관리 풀 서비스를 수행하고 있다. “스마트하우스 제주점(010-2696-2344/064-746-2344, 제주시 원노형 남2길 39)은 단순 임대차관리에서 공실/연체/행정/시설 등의 종합서비스를 제공하게 된다. 특히, 오픈기념으로 선착순 100명까지는 부동산자산관리 특별 무료상담 및 자문을 실시하고 있다.”라며 부동산종합서비스 제공에 대한 강한 자신감을 내비쳤다. 스마트하우스 전국 회원점 가입문의는 1566-5423 또는 스마트하우스홈페이지(www.smarthaus.co.kr)를 방문하시면 다른 지역 회원점 정보와 다양한 주택임대관리 정보를 얻을 수가 있다.[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 오늘의 핫뉴스 '댈입 광고' 성행에 SNS '사채 늪' 빠진 1020   30분돈많고 혼자사는 3040, 재테크도 달라…이곳 40%투자   16시간 22분합참 "北 탄도미사일 4500㎞ 비행"…추가도발 대비 추적·감시   19분尹 "감사원, 독립 헌법기관…대통령 언급 부적절"   57분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 '댈입 광고' 성행에 SNS '사채 늪' 빠진 1020 칼든 검사 조종석엔 김건희…고교생이 그린 '.. 돈많고 혼자사는 3040, 재테크도 달라…이곳 4.. 합참 "北 탄도미사일 4500㎞ 비행"…추가도발 .. 尹 "감사원, 독립 헌법기관…대통령 언급 부적.. 인기뉴스 종합 연예 스포츠 1DJ 고향 신안군에 `윤석열 대교` 짓는다…국민통합 상징.. 230억 이상 자산가들, 年4% 국채 폭풍매수…한달간 1000.. 3돈많고 혼자 사는 3040, 재테크도 남달랐다…주식 펀드.. 4"미 해군, 일본 지침 바뀌었나"…군 뉴스에서 `확` 달라.. 5[속보] 네이버, 북미 1위 패션 C2C플랫폼 인수 1권은비, 비키니 입고 글래머 몸매 인증 [똑똑SNS] 2이세영, “미쳤다” 소리 부르네…비수기 없는 비키니 .. 3최강희 "금주·금연 다 실패" 힘겨웠던 근황 4원민주 치어리더, 승요의 우아한 자태 [똑똑SNS] 5[MK이슈]YG, 공식입장으로 제니-뷔 열애 사실상 인정? 1인도네시아 프로축구 경기 도중 관중 충돌로 120명 이상.. 2치어리더 신세희 `마스크 벗고 반가운 얼굴` [MK화보] 3안현수 코치, 중국쇼트트랙 새 출발 공개 응원 4명장도 부활 못 시키나…위기의 이종현, 신인에게도 밀.. 5산둥 “손준호 중국 자랑거리…월드컵 참가 돕겠다” 포토 1/4 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 관광과 투자 1번지 제주도, 이제는 주택임대관리업시대다 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
-  </si>
-  <si>
-    <t>제주도, 관광업체 경쟁력 제고 마케팅 등 컨설팅 지원 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광업체 경쟁력 제고 마케팅 등 컨설팅 지원 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광업체 경쟁력 제고 마케팅 등 컨설팅 지원 기자명 고병수 기자 입력 2016.01.15 01:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주도는 제주도관광협회와 공동으로 지역 관광사업체의 경쟁력 제고를 위해 관광사업자에 대한 세무, 회계,  노무, 관광기본지식, 마케팅 등 교육과 회사 경영 노하우 컨설팅을 지원해 나간다고 14일 밝혔다.이에 따라 우선 관광사업체 교육과 컨설팅을 지원할 멘토단을 2월까지 구성할 계획이다.멘토잔에는 도내 업계, 학계 등 전문가를 비롯해 한국관광공사 및 한국문화관광연구원과 연계해 중앙의 전문가를 초빙한다. 올해 3월부터 교육 및 컨설팅을 희망하는 관광사업체 50개를 선정하고 오는 4월부터 10월까지 관광사업자에 대한 회계, 노무 등 교육과 컨설팅을 주 1∼2회 실시한다. 이런 컨설팅 지원으로 사업체 역량강화, 경영개선 지원, 네트워크 구축, 관광객 만족도 향상 등 지역관광 활성화로 연계되도록 할 계획이다.도 관계자는 “관광사업체 컨설팅 지원한 결과를 바탕으로 올해 11월에는 관광사업체에 대한 교육 및 컨설팅 효과를 분석하고 수범사례를 발굴해 관광업계에 전파․공유 등 피드백을 으로 관광사업체가 지속가능하게 소득이 향상되도록 지원해 나갈 계획”이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 크루즈 관광객 출국심사 1시간이내 단축 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도, 크루즈 관광객 출국심사 1시간이내 단축 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도, 크루즈 관광객 출국심사 1시간이내 단축 CBS노컷뉴스 김대휘 기자 메일보내기 2016-01-01 16:54 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주항 국제여객터미널을 이용해 출국하는 크루즈 승객의 보안검색을 포함한 출국심사가 1시간 이내로 단축될 전망이다. 제주도는 크루즈객 100만명 시대를 맞아 오는 2월부터 출국심사를 1시간 이내로 단축해 제주관광과 쇼핑 체류시간을 늘릴 계획이라고 1일 밝혔다.당초 출국심사는 국제여객터미널 개장한 지난해 11월에는 크루즈 승객 3000명을 기준했을 때 3시간정도 소요됐으며, 2개월이 지난 현재 1시간 50분 정도로 줄어들었지만 더 단축이 필요하는 지적이 제기돼왔다.제주도는 이의 추진을 위해 외국 국적의 크루즈 승객이 '국제항해선박과 항만시설의 보안에 관한 법률'에 따라 보안검색 대상인지 아닌지를 법제처에 유권해석을 의뢰했다. 더 클릭 다음 정권에 '1기 신도시' 넘긴 尹정부…주민들, '항의집회' 예고 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 "월급 줄 돈 없어"…기증받은 인체조직 헐값에 판 공공기관 北, 자강도서 IRBM 발사…일본 상공 통과해 태평양 낙하 가상화폐 뒷광고 딱 걸린 킴 카다시안, 18억원 '벌금 폭탄' 英트러스 정부, 부자 감세 '철회'…뉴욕증시 반등 마지막 남은 '방역 의무' 실내마스크…다른 나라들은 어떨까 주담대 금리 연 7%대 진입…연말 8%도 불가피 [단독]'인터넷 속도저하' 보상 건당 459원…'솜방망이 처벌' 효과 미미 [단독]혈세지원 공무원·군인연금, 15년전 부실투자 112억 아직 미회수 CBS노컷뉴스 김대휘 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
-  </si>
-  <si>
-    <t>제주도, 제2도약 질적관광 원년…도민 행복관광 실현 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 제2도약 질적관광 원년…도민 행복관광 실현 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 제2도약 질적관광 원년…도민 행복관광 실현 기자명 고병수 기자 입력 2016.01.05 14:38 수정 2016.01.05 14:46 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주도는 관광산업 질적 성장과 도민이 행복한 관광 실현을 위해 5대 정책을 중점 추진해 나간다고 5일 밝혔다.이를 위해 도는 ▲ 제주관광 질적 성장을 위한 정책 기반 조성 구축 등으로 제주관광의 질적 성장이 투영된 통계체계를 구축 ▲ 국내외 관광 마케팅 체제 정비 및 효율성 제고 ▲ 관광 수용태세 글로벌화 ▲ 지역 관광산업 경쟁력 강화에 나선다. 그리고 환경과 제주의 미래가치를 높이는 관광개발을 중점 추진할 계획이다. 도 관계자는 "앞으로 질적 성장을 통한 관광산업 발전 혜택이 도민에게 고루 돌아가도록 추진하면서 스마트 관광, 관광컨텐츠가 풍부한 관광, 친절․청결한 제주가 되도록 해 관광객이 만족하고 오래 머물고 다시 찾을 수 있도록 하겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>[뉴스파일] 제주도, 낚시어선 이용 관광객 운송 허용-국민일보 시사 시사 &gt; 전체기사 [뉴스파일] 제주도, 낚시어선 이용 관광객 운송 허용 입력 : 2016-01-04 20:19 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도는 올해 새롭게 도입되는 해양수산 분야 자치법규 정비 내용에 따라 해녀의 명칭이 통일되고, 낚시어선을 이용한 해양레저 관광객 운송도 허용된다고 4일 밝혔다. 3년마다 발급·갱신해야 하는 해녀증 유효기간도 폐지된다. 진료비 지원 대상도 도내에 거주하면서 현재 물질조업을 하고 있는 해녀와 만65세까지, 그리고 15년 이상 해녀생활을 했던 자로 한정된다. GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 김건희 논문 증인들 줄줄이 국감 불출석…野 “국민무시” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건 전남에 전국 첫 저메탄 조사료 종합유통센터 설치 尹, 북 탄도미사일 발사에 “무모한 핵도발, 결연한 대응 직면할 것”</t>
-  </si>
-  <si>
-    <t>제주도, 낚시어선 관광객 승선허용...해양수산 자치법 정비 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 낚시어선 관광객 승선허용...해양수산 자치법 정비 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 낚시어선 관광객 승선허용...해양수산 자치법 정비 기자명 고병수 기자 입력 2016.01.02 16:44 수정 2016.01.02 16:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 2일 제주특별자치도에 따르면 올해부터는 그 동안 잠수, 해녀 등으로 혼용해 왔던 용어를 '해녀'로 통일하고 낚시어선 해양레저 관광객 승선을 허용하는 해양수산관련 법규가 정비돼 본격 시행된다고 밝혔다.주요내용으로 해녀, 잠수 혼용으로 혼란이 대왔던 명칭을 해녀 분들이 가장 많이 사용하고 선호하는 '해녀'로 통일했고 3년마다 발급․갱신하는 해녀증 유효기간을 폐지해 고령화 되어가는 해녀 분들의 불편이 사라졌다. 또한 진료비 지원 대상을 도내에 거주하면서 현재 물질조업을 하고 있는 해녀, 만65세까지 그리고 15년 이상 해녀생활을 하였던 자로 명확히 규정했다. 그리고 기존 전직 해녀 중 만 65세 미만이며 해녀경력이 5년 미만인 사람을 지원 대상에서 제외된다.해녀 질병 진료비 지원사업은 지난 1999년도부터 진료비를 지원해 오고 있으며 2014년도까지 330억원을 지원했고 2015년도에는 49억 원을 지원하고 있다. 이와 함께 내년부터는 도 조례가 정하는 안전시설을 갖춘 낚시어선은 해양레저를 목적으로 스킨다이빙 또는 스쿠버다이빙을 하려는 사람을 운송하도록 허용해 제주도는 낚시어선을 이용한 해양레저 관광객 운송이 허용된다. 관계자는 "낚시어선이 도내에서 해양레저 관광객을 운송할 수 있을 경우 연간 4~5만명의 관광객 운송으로 어촌경제 활성화에 크게 기여할 것"이라며 "제주도를 찾는 관광객들이 보다 안심하게 해양레저 활동을 하도록 안전점검 등도 강화해 나갈 계획"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>제주도 등 관광발전 1등급 지자체 선정 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 등 관광발전 1등급 지자체 선정 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 등 관광발전 1등급 지자체 선정 송고시간2016-01-26 09:35 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 (세종=연합뉴스) 김아람 기자 = 제주도, 경주시, 속초시, 평창군, 울릉군이 관광발전 수준이 우수한 지자체로 선정됐다. 문화체육관광부는 전국 17개 시·도와 152개 시·군을 조사한 '2015 지역관광발전지수 동향분석' 연구 결과를 26일 발표했다. 관광수용력, 관광소비력, 관광정책역량 등을 측정하는 지역관광 발전지수를 활용해 전국 지자체 관광발전 수준을 분석했다. 광고 광역자치단체 중에는 제주특별자치도, 기초자치단체 중에는 경주·속초·평창·울릉이 각각 관광발전 종합지수 1등급 지역으로 선정됐다. 이들 지역은 평가 항목인 관광 자원·인프라, 관광 만족도·지출액 등 지역 관광 효과, 지역민 관광 활력, 예산·조례 등 관광 정책 환경, 관광 인력, 홍보 등에서 고르게 높은 평가를 받았다. 관광수용력 지수는 강원도·경주·속초·창원·평창·여수·춘천·강릉·순천·정선 등 10개 지자체, 관광소비력 지수는 제주도·울릉·평창·용인·고성(강원)·경주·정선·무주·태안·거제 등 10개 지자체가 1등급을 받았다. 관광정책역량 지수 1등급을 받은 지자체는 단양·담양·고령·화천·강진·제천·곡성 등 7곳이다. 문체부는 앞으로 정기적으로 지역관광 발전지수를 산출해 이를 지역 관광발전에 활용할 수 있도록 지원할 계획이다. rice@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/01/26 09:35 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 한파주의보에 제주공항-도로 모두 꽁꽁…관광객 ‘불편’ - 열린세상 열린방송 MBN 홈 &gt; 전체기사 &gt; 기사 |  글자크기 제주도, 한파주의보에 제주공항-도로 모두 꽁꽁…관광객 ‘불편’ 기사입력 2016.01.23 18:30:16 기사 나도 한마디 Tweet 0 0 구글 제주도, 한파주의보에 제주공항-도로 모두 꽁꽁…관광객 ‘불편’ 제주공항이 한파주의보로 항공기 운항에 차질을 빚고 있다. 7년 만에 발효된 한파주의보와 대설특보, 강풍특보 등으로 제주가 꽁꽁 얼어붙었다. 23일 제주지방기상청에 따르면 오후 3시 현재 한라산의 지점별 적설량은 진달래밭 85㎝, 윗세오름 82㎝, 어리목 55.5㎝, 아라 16㎝ 등이다. 이날 아침 최저기온은 한라산 윗세오름이 영하 11.7도, 성판악 영하 6도, 유수암 영하 3.7도, 아라 영하 3.5도, 제주 0.2도, 서귀포 1.8도 등을 기록했다. 기상청은 앞으로 25일까지 제주 산간에 10∼50㎝, 산간을 제외한 지역에 5∼10㎝가 더 내리겠다고 예보한 가운데, 기상청은 이날 오전 10시를 기해 제주 산간의 대설주의보를 대설경보로 대치했고 이어 오후 3시를 기해 산간 외 제주 전역에도 대설주의보를 발효했다. 제주도, 한파주의보에 제주공항-도로 모두 꽁꽁…관광객 ‘불편’ 오전 11시를 기해서는 제주 전역에 한파주의보가 발효됐다. 제주에 한파주의보가 내려진 것은 지난 2009년 3월 13일 이후 7년 만이다. 대설특보가 발효되면서 한라산 입산은 전면 통제됐다. 오후 2시 45분 현재 한라산을 지나는 1100도로(어승생∼거린사슴)는 대·소형 차량 운행이 모두 통제됐고 516도로(첨단로∼수악교)와 비자림로(교래4가∼교래입구3가), 제2산록도로 전 구간, 첨단로(월평1교차로∼첨단로입구3가) 등은 대형 차량은 월동장구를 갖춰야 하며 소형 차량의 운행은 통제됐다. 번영로·평화로·남조로·제1산록도로 등은 대·소형 차량 모두 월동장구를 갖춰야 운행이 가능하다. 눈길 교통사고도 잇따랐다. 오전 6시 43분께 서귀포시 516도로 숲터널 인근에서 시외버스가 눈길에 미끄러져 유모(53·여)씨 등 5명이 다쳐 병원에서 치료를 받는 등 미끄러짐 사고와 단순 접촉사고가 곳곳에서 발생했다. 제주공항에서는 많은 눈으로 인해 항공편 운항이 차질을 빚었다. 오후 1시 10분께 군산으로 가려던 대한항공 KE1918편 등 출발·도착편 117편이 결항했고, 73편이 지연운항했다. 이로 인해 제주공항 터미널에 대기 승객 4천여 명의 발이 묶였다. 제주도 전 해상과 제주 남쪽 먼바다 등에는 풍랑주의보가 각각 발효 중인 가운데 해상에 물결이 매우 높게 일고 바람도 강하게 불어 이날 여객선과 도항선 운항은 통제됐다. 기상청 관계자는 "북쪽에서 찬 공기가 남하해 기온이 큰 폭으로 내리고 바람도 강하게 불어 체감온도는 더욱 낮아질 것"이라며 "풍랑특보도 발효돼 항해하거나 조업하는 선박은 주의해야 한다"고 말했다. 제주도 재난안전대책본부는 "도로가 미끄러운 곳이 많아 교통안전과 보행안전에 특히 주의해야 하며, 중산간 지역 비닐하우스와 축사시설에서도 눈 쓸어내리기 등 폭설 피해가 발생하지 않도록 대비해야 한다"고 당부했다. 제주공항 제주도날씨 온라인 이슈팀 @mkculture.com &lt; Copyright ⓒMBN(www.mbn.co.kr)무단전재 및 재배포 금지 &gt; 관련기사 신혜성, 도난차량서 음주측정 거부하다 체포 크러쉬, 인종차별 논란 해명 "제스처 오해" 이세영, 밥 먹는 모습 마저도 섹시 그 자체 나연, 무대 뒤에서도 숨길 수 없는 예쁨 서현, 우아+섹시미 가득한 드레스 MBN STAR 최신포토 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. ‘음주운전 자숙’ 리지, 새 증명사진 공개...미소 다시.. 마마무, 빈티지한 무드 가득한 ‘MIC ON’ 하이라이트 .. 이찬혁, 첫 솔로 앨범 타이틀곡 제목 ‘파노라마’...의.. 강하늘 “스트레스 안 받는 이유? INFP 집돌이라.. 강하늘 강하늘 정우성 김혜윤 최우식 최우식 이준호 이준호 유아인 이선빈 드라마 우아한 가레벨업최고의 치킨설렘주의보마성의 기쁨마녀의 사랑리치맨고품격 짝사랑시추에이션 연남동 539엄마니까 괜찮아수상한 가족천국의 눈물 예능 트로트 퀸지구방위대친한 예능자연스럽게모던 패밀리엄지의 제왕속풀이쇼 동치미알토란스포츠 야예능 특집 프로그램 교양 나는 자연인이다여행생활자 집시맨기막힌 이야기 실제상황생생 정보마당판도라천기누설소나무휴먼다큐 사노라면현장르포 특종세상MBN 토요포커스열린TV 열린세상성공다큐 최고다 보도 MBN 종합뉴스이 한 장의 사진픽 뉴스굿모닝 MBN아침 &amp; 매일경제뉴스 &amp; 이슈뉴스파이터MBN 프레스룸MBN 뉴스와이드전국네트워크뉴스MBN 뉴스와이드 주말스포츠뉴스굿모닝 월드실리콘밸리 라이브MBN 뉴스특보시사스페셜데이터로 본 세상 뉴스 전체 정치 경제 사회 국제 문화 연예 스타 스포츠 생활ㆍ건강 지역 인기척 현장에서 뉴스제보 서비스 헬스 날씨 뉴스레터 이벤트 SNS 유튜브 Entertainment 유튜브 News 카카오스토리 페이스북 인스타그램 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 RSS 사이트맵 SNS MBN Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 류호길 |서울시 중구 퇴계로 190 (주)매일방송 |오시는길|대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 |인터넷신문등록번호 서울 아01043 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved. (본 사이트는 IE8.0 에 최적화 되어 있습니다.) 시작페이지 설정 즐겨찾기</t>
+  </si>
+  <si>
+    <t>하늘길·바닷길 끊긴 제주도…관광객 때아닌 노숙 | SBS 뉴스 뉴스 뉴스 본문 바로가기전체 메뉴 바로가기기사 검색창 바로가기 배너 닫기 SBS뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 대메뉴 리스트 분야별 다시보기 취재파일 팟캐스트 이슈 끝까지 판다 SBS8뉴스 SDF 분야별 다시보기 취재파일 팟캐스트 이슈 멀티미디어 |비디오머그 스브스뉴스 VOICE 8뉴스| 하늘길·바닷길 끊긴 제주도…관광객 때아닌 노숙 라이브 제보하기 전체 메뉴 레이어 보기 SBS 뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 SBS 뉴스 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 전체 메뉴 분야별 - 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 - 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 - 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트 - 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 - 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 - 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 - 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 문명특급 기타 - 기타 메뉴 리스트 공지사항 자유게시판 SBS 뉴스 - 소셜 미디어 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 - 연관 프로그램 앱 소개 SBS D포럼 인-잇 SBS 뉴스 - 기사 검색 검색하기 SBS 뉴스 - 라이브 생방송 라이브 제보하기 전체 메뉴 레이어 닫기 검색하기 SBS 뉴스 SBS 뉴스 - 섹션 카테고리 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 SBS 뉴스 - TV 프로그램 다시보기 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오뉴스 취재파일 취재파일 8뉴스 사회 하늘길·바닷길 끊긴 제주도…관광객 때아닌 노숙 하늘길·바닷길 끊긴 제주도…관광객 때아닌 노숙 JIBS 김동은 JIBS 김동은 Seoul 작성 2016.01.24 20:14 수정 2016.01.24 21:59 조회 조회수 프린트기사본문프린트하기 글자 크기 크게보기 글자크기 작게보기 PIP 닫기 &lt;앵커&gt; 제주에는 도심 기준으로 32년 만에 가장 많은 눈이 왔습니다. 강풍까지 겹쳐서 제주 공항은 항공기 운항이 이틀째 전면 중단이 됐습니다. 6만 명의 발이 묶어서, 관광객들이 공항에서 때아닌 노숙을 해야하는 처지가 됐습니다. JIBS, 김동은 기자입니다. &lt;기자&gt; 제주공항 활주로가 완전히 얼어 붙었습니다. 공항은 거대한 주차장이 돼 버렸습니다. 제주 공항에는 20㎝에 가까운 눈이 쌓였고 난기류로 강한 바람까지 몰아쳤습니다. 제주공항 활주로는 앞이 보이지 않을 만큼 많은 눈이 쌓여 얼어붙은 데다, 강한 바람까지 더해지면서 항공기 운항이 완전히 통제된 상황입니다. 항공기 운항이 이틀째 통제되면서 800여 편이 결항 돼 관광객 6만여 명의 발이 묶였습니다. 공항 활주로는 내일 오전 9시까지 폐쇄돼 항공기 60여 편이 더 결항할 것으로 보입니다. 공항 대합실은 아수라장입니다. 지친 승객들은 바닥에 자리를 깔고 누웠습니다. [이인순/경상북도 상주시 : 편의점에 가도 먹을 것도 없고, 식당에 가도 음식도 안 되고, 칫솔 사서 화장실에서 양치하고 잠도 제대로 못 잤어요.] 인근 숙소는 이미 예약이 끝나서 관광객들은 공항에서 노숙 아닌 노숙을 해야 합니다. [정영도/부산시 동래구 : 주변 숙박업소를 알아봤는데 게스트하우스나 모텔도 알아봤는데 예약이 다 돼서 숙박업소 구하기가 어렵습니다.] 제주 해상에 풍랑 경보가 발효되면서 뱃길도 완전히 끊겨 9개 항로 여객선 10여 척의 운항이 전면 중단됐습니다. 하늘길과 바닷길이 모두 끊기면서 제주는 이틀째 완전고립됐습니다. (영상취재 : 현길만 JIBS) ▶ '133cm 눈폭탄' 울릉도, 현지 상황? "생필품 바닥" 페이스북으로 공유하기 트위터로 공유하기 네이버로 공유하기 SNS 공유버튼 더보기 카카오톡으로 공유하기 밴드로 공유하기 카카오스토리로 공유하기 url 주소 복사하기 URL 복사하기 X닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V)해주세요. 확인 이 기사의 덧글 보기 0 이 기사 좋아요 하기 9 관련 뉴스 추천 뉴스 이 시각 인기기사 만취 운전하다 잠든 신혜성…왜 남의 차 몰았나 보니 공효진, 뉴욕서 비공개 결혼…'10살 연하' 배우자 누구? "크러쉬가 악수 거절…뻔뻔한 인종 차별" 올라온 영상 "스트레스 받는다" 50대 남성, 비비탄 총 꺼내서 한 짓 동영상 기사 '배려석' 앉아있던 임산부, 다가온 노부부에게 들은 말 많이 본 뉴스 더 저널 리스트 더 저널 리스트더 보기 마부작침 마부작침더 보기 페이지 최상단으로 가기 닫기 SBS 뉴스 비디오머그 스브스뉴스 인잇 보러가기 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 앱 소개SBS 뉴스 모바일앱 다운받기 SBS D포럼 검색하기 SBS 뉴스 전체 메뉴 분야별 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트- 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 바로가기 시청자 참여리스트 공지사항 자유게시판 뉴스제보 고충처리인(방송피해신고) 열린TV시청자세상 윤리경영신고 시청자 참여 리스트 닫기 About SBS리스트 SBS PR SBS IR 채용정보 이용약관 SBS 방송편성규약 개인정보처리방침 시청자위원회 영상판매 웹광고 SBS 제작협찬 SBS 방송기술 SBS 문화사업 SBS Prism Tower 아트컬렉션 고객센터 사이트맵 어바웃 SBS 리스트 닫기 SBS Family리스트 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S SBS 패밀리 리스트 닫기 지역민영방송리스트 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 지역민영방송 리스트 닫기 웹광고 개인정보처리방침 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 뉴스기사제보 (02)2113-6000 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 ⓒ SBS &amp; SBS Digital News Lab all rights reserved.</t>
+  </si>
+  <si>
+    <t>‘32년만 폭설’ 도민·관광객 보호하라…제주도 전 공직자 구슬땀 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 ‘32년만 폭설’ 도민·관광객 보호하라…제주도 전 공직자 구슬땀 道, 총력대응시스템 가동…공항체류객에 안전·교통·물품 지원 블로그·페이스북 등 SNS 통해 87만명에 공항·날씨 상황 전파 (제주=뉴스1) 고경호 기자					| 2016-01-25 09:29 송고 | 2016-01-25 14:20 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도 공무원들이 24일 공항 체류객들에게 깔판을 제공하고 있다. © News1 제주도가 39년 만의 최저 기온과 32년 만의 폭설로 인해 고립된 가운데 도민과 관광객들의 피해를 최소화하기 위해 행정력을 총력 동원하면서 구슬땀을 흘리고 있다. 제주도는 기록적 한파가 제주를 찾을 것으로 예상되자 지난 23일로 예정된 재일본제주도민회 신년인사회 참석 등 도지사의 해외 출장 일정을 전격 취소하고, 피해발생을 최소화할 수 있도록 선제적 대응 매뉴얼을 가동하고 있다고 25일 밝혔다.이에 따라 제주도는 도내에 발이 묶일 것으로 예상되는 6만여 명에 달하는 관광객의 피해를  최소화하기 위해 교통과 숙박 안내데스크를 설치하고, 국장급 간부공무원을 제주공항에 상주시켜 세심한 현장대응과 불편사항 최소화에 주력하고 있다.이를 위해 숙박업소 45개소·316실을 확보, 공항에서 이동을 원하는 관광객에게 정보를 제공하는 것은 물론 대중교통 또는 전세버스를 통한 이동편을 지원했다. 부득이하게 공항에 체류하는 이용객에게는 모포와 매트리스, 삼다수, 간식 등을 긴급 제공하는 한편 휴대전화 무료충전 서비스 등 관광객에게 불편 사항이 최소화되도록 다양한 지원을 하고 있다.지난 23일부터 이틀간 제주공항 체류객에 지원된 내역을 보면 모포 1918개, 매트리스 1050개, 삼다수 3만병, 빵 1만5000개, 휴대전화 충전 서비스 50대 및 멀티탭 100대 설치 등이다.아울러 제주공항과 제주시내를 이동할 수 있는 이동 전세셔틀버스 50대도 운행했다.제주도는 제주공항 체류객 외에도 폭설과 한파로 인한 도내 취약계층의 피해를 예방하기 위한 다양한 지원책을 시행하고 있다.이를 위해 제주도는 행정시 및 읍·면 사무소, 동주민센터 등과 함께 한파로 인해 노인이나 취약계층 장애인, 노숙인 등이 피해가 없도록 복지시설 점검 및 독거노인 안부전화 등에 나서고 있다. 제주시청 소속 공무원들이 24일 한파를 맞아 관내 독거노인집을 방문해 안부를 묻고 있다.© News1 또 상수도 동파 등 도민 불편을 최소화하기 위해 제주도 수자원본부를 중심으로 24시간 비상전화(국번없이 121) 신고접수 및 읍·면·동 전담직원 200여 명과 58개 급수공사 대행업체와 함께 긴급복구반을 운영하고 있다. 이와 함께 시내권 결빙도로 및 공항 진입도로를 중심으로 우선 제설작업을 실시하는 한편 도로통제와 각종 시설물 피해 상황 접수 및 안전점검과 현장점검을 강화하고 있다. 한파와 폭설로 인한 1차산업의 피해를 막기 위해서도 비닐하우스 12만5000동에 대한 눈 쓸어내리기 및 난방기 가동 독려와 함께 육상양식장 387개소에 대한 피해 상황 파악 및 정전대비 안전점검 지도 등에도 나서고 있다.이어 제주도는 추가적인 도민·관광객 피해나 불편을 최소화하기 위해 도청 블로그와 페이스북, 트위터, 카카오스토리 등 4대 소셜네트워크서비스(SNS) 채널을 통해 실시간 정보를 제공하면서 각종 온라인 문의 사항 등에 답변하고 있다.실제 지난 23일부터 24일까지 도청 해피제주 블로그 1일 방문자만 12만명이었으며, 도청 4대 SNS 방문자는 무려 87만여 명에 달했다. 제주도 수자원본부 소속 공무원이 24일 제주시내 한 가정집에서 동파된 수도관을 수리해 주고 있다. © News1 김정학 제주도 기획조정실장은 이와 관련, “원희룡 지사를 중심으로 도내 전 공직자가 기상 상황이 개선되고 공항 내 체류 관광객이 무사 귀가할 때까지 비상근무체계를 유지하면서 빈틈없는 대응 시스템을 유지해나갈 계획”이라고 말했다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주공항 운항중단, 9만여 명 관광객 제주도서 발 묶여 '운항중단 언제까지?' | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 제주공항 운항중단, 9만여 명 관광객 제주도서 발 묶여 '운항중단 언제까지?' 입력 : 2016-01-25 11:12:55 수정 : 2016-01-25 11:12:55 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주공항 운항중단, 9만여 명 관광객 제주도서 발 묶여 '운항중단 언제까지?'사진: 방송 캡처 제주공항 운항중단, 9만여 명 관광객 제주도서 발 묶여 '운항중단 언제까지?' 제주공항 운항중단 소식이 전해진 가운데 9만여 명의 관광객이 집으로 돌아가지 못하고 있는 것으로 전해졌다. 국토교통부와 한국공항공사는 "25일 저녁 8시까지 운항을 금지하기로 했다"고 전했다. 이에 따라 25일 오전 6시부터 오후 8시까지 총 390여편(출·도착 기준)이 결항한다. 제주공항 활주로 폐쇄로 결항한 항공편은 23일 296편, 24일 517편을 합해 총 1천200여편에 이르게 된다. 지난 주말부터 9만여 명이 넘는 관광객이 집으로 돌아가지 못한 가운데 미처 잠자리를 구하지 못한 2천여 명이 차가운 대합실 바닥에서 밤을 지새웠다. 한편 제주도와 공항공사에서 간단한 먹거리 등을 지원했지만 식당이나 편의점 물품이 동나면서 큰 불편을 겪고 있다.인터넷팀 김나영 기자 main@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20160125001382 0101080100000 0 2016-01-25 11:14:18 2016-01-25 11:12:55 0 제주공항 운항중단, 9만여 명 관광객 제주도서 발 묶여 '운항중단 언제까지?' 세계닷컴 김나영 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주 투자유치, 관광개발→신성장 위주 궤도수정 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주 투자유치, 관광개발→신성장 위주 궤도수정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주 투자유치, 관광개발→신성장 위주 궤도수정 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.01.27 11:52 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 투자유치 방향을 대규모 관광개발에서 신성장 산업으로 방향을 틀었다.제주도는 2016년 외국인투자유치 전략을 수립, 본격적인 다변화 활동에 나선다고 27일 밝혔다.그동안 제주의 투자유치는 대규모 관광개발사업 위주였다. 그러다 보니 중국자본의 토지 매입과 숙박업 위주의 개발사업이 사회적 문제로 대두됐다.제주도는 관광개발사업 위주에서 탈피, IT·BT, 전기자동차, 신재생에너지, 제주기업 합작투자 등 신성장 산업으로 확대, 본격적인 투자유치 활동을 전개할 예정이다.제주도는 신성장 동력산업 투자유치를 위해 KOTRA, 주한외국인기업협회, 싱가포르국제기업청, 주한덴마크 대사관 등 여러 투자유치 유관기관과의 네트워크를 구축해 왔다.체계적인 투자유치 활동을 위해 제주도는 우선 신재생에너지 및 전기자동차, IT &amp; BT 분야의 제주기업 합작투자 상품을 1분기에 구성하고, 구축된 유관기관 네트워크를 통해 동남아, 북미, 유럽 등 다양한 국가의 잠재투자기업들을 발굴할 계획이다.제주향토기업 합작투자상품을 바탕으로 한 중국잠재투자기업들을 지속적으로 발굴, 상생하는 투자유치 성과도 낸다는 방침이다.지난해 하반기부터 중국 서부지역을 타깃으로 전개해 온 합작투자 유치설명회는 올해 중국 시안에서 개최해 제주에 대한 투자유치 이미지를 제고한다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광객-도민 불편최소화 설 연휴 종합대책 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광객-도민 불편최소화 설 연휴 종합대책 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광객-도민 불편최소화 설 연휴 종합대책 추진 기자명 고병수 기자 입력 2016.01.22 16:07 수정 2016.01.22 16:12 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주특별자치도는 설 연휴 기간 중 제주를 찾는 관광객과 도민들의 불편을 최소화하기 위해 설연휴 종합대책을 마련하고 본격 추진에 들어간다고 22일 밝혔다.설연휴 종합대책은 도민과 귀성객 그리고 관광객과 밀접한 관련이 있는 물가, 안전, 교통, 의료, 민생, 쓰레기, 관광 등 분야별로 설 이전까지 소관부서별로 세부대책을 마련해 추진하고 설 연휴기간에는 종합상황실 체제로 운영된다. 특히 설 연휴기간에는 제주안내 120콜센터를 주·야간 탄력적으로 종합상황실을 운영해 각종 상황에 발빠르게 대처해 나간다.분야별 대책으로 ▲ 25일부터 2월 7일까지를 설명절 물가관리 특별대책기간으로 설정해 지도·점검반을 꾸려 설 물가를 점검 ▲ 귀성객과 관광객 교통불편을 최소화를 위한 특별항공수송대책상황실과 항만운영특별상황실 운영 ▲ 설연휴 각종 사건사고 예방을 위해 다중이용시설과 저소득 소외계층 등 화재 취약지구에 대한 사전 점검을 강화한다.이어 ▲설연휴 비상진료체계를 위해 비상진료대책상황실 설치 운영하고 당직의료기관과 당번약국을 지정, 비상진료체계 유지 ▲ 소외된 이웃에 대한 위문을 실시을 통해 도민 화합 분위기 조성 ▲ 설맞이 대청결운동 등을 적극 추진한다. 이밖에도 검소한 설 연휴 보내기 운동 추진과 연휴기간 중 도박, 음주운전 등 공직자 품위 손상 행위를 비롯한 대민행정 취약분야에 대한 감찰활동을 강화해 엄정한 공직기강을 확립해 나갈 예정이다.도 관계자는 "민족 고유의 명절인 설을 맞아 제주를 찾는 관광객과 도민들이 훈훈하고 인정이 넘치는 설 연휴를 즐기도록 분야별 대책을 철저히 준비해 추진해 나가겠다"고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>‘관광 1번지’ 제주도내 택시 서비스 질 향상된다 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 ‘관광 1번지’ 제주도내 택시 서비스 질 향상된다 道, 올해 100억 투입 카드결제기 교체 등의 사업 추진 (제주=뉴스1) 고경호 기자					| 2016-01-22 13:37 송고 | 2016-01-31 20:26 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 ‘관광 1번지’인 제주도내 택시 서비스의 질이 대폭 향상될 전망이다.제주도는 올해 사업비 100억원을 투입, 택시 카드결제기 교체와 택시 운행정보 관리시스템 구축, 택시감차 등의 사업을 시행한다고 22일 밝혔다.택시카드결제기 교체사업에는 올해 4억4500만원을 들여 2971대를 교체하고 나머지 1925대는 2017년 교체한다.이는 여신전문금융업법 제27조의4 개정으로 2015년 7월 21일부터 시행되는 IC카드 결제기 인증이 도입됨에 따라 기존에 설치된 카드결제기를 3년 이내 인증 받은 카드결제기로 의무적으로 교체하도록 돼 있음에 따른 조치라는 게 제주도의 설명이다. 또 택시정책의 근간이 되는 기초자료를 수집 및 활용하기 위해 시행되는 택시 운행정보 관리시스템 구축사업에는 4억2600만원이 투입되며 일반택시 1471대를 대상으로 추진된다.침체된 택시업계가 경쟁력을 갖춰 보다 나은 택시 서비스를 제공할 수 있도록 도내 택시업계에 대한 각종 지원도 확대한다.제주도는 영세한 택시업체의 경영개선을 위해 올해 78억9100만원의 예산을 유류세 연동 보조금(유가보조금) 지원 사업에 투자한다.또 택시 과잉공급으로 인한 택시사업 침체 등의 문제를 근본적인 해결을 위해 택시감차사업에 올해 8억1900만원이 투입된다.택시요금을 카드로 결제 시 택시업계에서 카드수수료를 부담하고 있음에 따라 8000원 이하 소액을 카드로 결제 시 수수료를 제주도가 지원하기 위해 사업비 3억원을 투자한다.이밖에 장애인 운수종사자를 채용하고 있는 32개 택시업체(33대)에 대한 공제보험료로 사업비 3800만원이 지원된다.강영돈 제주도 교통정책과장은 이와 관련, “제주가 명실상부한 국제적인 관광지로서 국내·외 관광객들이 증가하고 있어 이에 걸맞은 선진 택시제도를 적극 도입하는 한편 택시 운수종사자들의 친절 마인드를 함양을 위한 친절교육도 한층 강화해 나갈 방침”이라고 말했다. uni05@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 공항체류객에 관광버스와 간식 제공 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도, 공항체류객에 관광버스와 간식 제공 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도, 공항체류객에 관광버스와 간식 제공 CBS노컷뉴스 김대휘 기자 메일보내기 2016-01-24 19:08 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주도는 폭설로 제주공항에 체류하고 있는 관광객 등을 위해 관광버스와 간식 등을 제공했다. 제주도는 24일 오후 3시부터 빵 만여개와 음료를 제주공항 체류객에게 전달했다. 이에 앞서 담요 650개를 비롯해 삼다수와 컵라면 등 간식을 제공하고 전세버스 35대를 투입해 이동편의를 제공했다. 또 종합병원 24시간 진료체제를 유지하고 심야약국에 대해서도 운영하도록 요청했다. 더 클릭 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "좋은 냄새난다" 병사들 상습 추행 …"징계 가혹"하다는 군 간부 [르포]'나눔이·농부' 판치는 다크웹…'마약과의 전쟁' 비웃나 [칼럼]핵위협 공포에 휩싸인 한반도 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 CBS노컷뉴스 김대휘 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 제주공항 결항사태 발묶인 관광객에 간식 제공 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 제주공항 결항사태 발묶인 관광객에 간식 제공 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도, 제주공항 결항사태 발묶인 관광객에 간식 제공 원성심 headlinejeju@headlinejeju.co.kr 승인 2016.01.24 16:57 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 32년만에 엄습한 폭설로 24일 제주공항의 항공기 운항이 전면 통제됨에 따라 공항에 발이 묶인 체류관광객 등의 불편을 최소화하기 위해 지원활동을 펴고 있다고 밝혔다.제주특별자치도는 이날 오후 원희룡 제주도지사가 제주공항을 직접 방문한 가운데, 공항 체류객에 빵 1만여개와 삼다수 및 컵라면 등 간식을 전달했다. 또 밤샘 노숙 체류객들을 위해 난방시설에 대한 일제점검을 실시함은 물론 종합병원 24시간 진료체제 및 심야약국을 운영 상황을 점검했다. 현재 공항에는 김방훈 정무부지사가 현장에 상주하며 총괄 지휘 하고 있다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 32년만의 폭설에 제주섬 '꽁꽁'...하늘.바닷길 막혔다 제주공항, 이틀째 무더기 결항...정오까지 이착륙 전면금지 제주공항, 이틀째 무더기 결항...이착륙 전면금지 밤샘노숙에 고성 난무...폭설에 제주공항 아수라장 제주공항 항공기 운항 전면통제...무더기 결항사태 '대혼란' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 공항서 오갈데 없는 관광객에 스티로폼 지급 &lt; 사회 &lt; 포토 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 공항서 오갈데 없는 관광객에 스티로폼 지급 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 포토 사회 제주도, 공항서 오갈데 없는 관광객에 스티로폼 지급 기자명 홍희선 기자 입력 2016.01.24 19:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 24일 제주특별자치도는 공항에서 오도가도 못하는 공항내 관광객을 위해 스티로폼을 나눠주고 있다. 스티로폼은 15분여 만에 모두 동이 났다.▲ 24일 제주특별자치도는 공항에서 오도가도 못하는 공항내 관광객을 위해 스티로폼을 나눠주고 있다. 스티로폼은 15분여 만에 모두 동이 났다.▲ 24일 제주국제공항 내에서 노숙을 결정한 관광객들은 공항 한켠에서 자리를 펴고 쉬고 있다.· 관련기사 제주 역대급 폭설·한파 제주공항 25일 저녁 8시까지 폐쇄 홍희선 기자 huiseon93@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-일본 홋카이도 관광 교류 적극 추진키로 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도-일본 홋카이도 관광 교류 적극 추진키로 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도-일본 홋카이도 관광 교류 적극 추진키로 송고시간2016-01-12 18:14 日本語 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 우호협력도시 협약 체결...1차산업 교류도 강화 제주도-홋카이도 우호협력도시 협약 (제주=연합뉴스) 김호천 기자 = 원희룡 제주도지사(오른쪽)와 다카하시 하루미 일본 홋카이도지사가 12일 오후 제주도청에서 우호협력도시 협약을 체결하고 나서 기념촬영을 하고 있다. 2016.1.12 khc@yna.co.kr (제주=연합뉴스) 김호천 기자 = 제주도와 일본 홋카이도는 12일 오후 제주도청에서 공동발전과 번영을 위한 우호협력도시 협약을 체결했다. 협약식에는 원희룡 제주도지사와 다카하시 하루미 홋카이도지사, 엔도 렌 홋카이도의회 의장 등이 참석했다. 한일 양국의 대표적인 관광도시인 두 지역은 앞으로 관광산업 교류와 양 지역 관광객 유치 활동, 글로벌 인재 육성 등을 적극적으로 추진하기로 했다. 제주도는 홋카이도의 선진 분야인 1차산업 관련 선진 시책을 벤치마킹한다. 광고 양 지역은 또 상호 관심이 높은 분야에서 실질적인 교류가 이뤄질 수 있도록 적극 노력하기로 했다. 제주도-홋카이도 우호협력도시 협약 기념촬영 (제주=연합뉴스) 김호천 기자 = 원희룡 제주도지사(오른쪽 다섯 번째)와 다카하시 하루미 일본 홋카이도지사(오른쪽 여섯 번째)가 12일 오후 제주도청에서 우호협력도시 협약을 체결하고 나서 기념촬영을 하고 있다. 2016.1.12 khc@yna.co.kr 제주도와 홋카이도는 2012년 한·중·일 30인 회의를 계기로 그동안 공동발전이라는 비전 아래 지속적인 실무협의를 하며 교류협력 방안을 모색했다. 협약은 2014년 4월 홋카이도지사의 제주 방문 때 제안됐으나 세월호 사고와 지난해 메르스 확산 사태 등으로 2차례 연기됐다. 홋카이도는 인구 546만명이 사는 일본 최북단에 있는 광역자치단체로 온천과 설경이 유명한 대표적 관광도시다. 넓은 면적과 풍부한 자원으로 '일본의 식량기지'라고 할 만큼 1차산업이 발달했다. 일본 내에서도 홋카이도 산 농수축산물은 품질을 인정받는다. 홋카이도지사 일행은 협약에 앞서 이날 오전 제주도교육청을 찾아 글로벌 인재 육성 시책에 대한 현황을 청취했다. 세계자연유산센터와 제주지질공원을 둘러보기도 했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/01/12 18:14 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 체류객 2만7천명 육지로,내일까지 제주도 관광객 체류문제 해결? &lt; 경제 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 체류객 2만7천명 육지로,내일까지 제주도 관광객 체류문제 해결? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도 체류객 2만7천명 육지로,내일까지 제주도 관광객 체류문제 해결? 기자명 권은이 기자 입력 2016.01.26 10:51 수정 2016.01.26 11:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국토교통부는 폭설 등에 따른 운항통제로 제주도에 체류하고 있는 관광객들의 체류문제를 내일까지 해결할 계획이라고 밝혔습니다.국토교통부에 따르면 국적 항공사들은 오늘 오전부터 제주노선을 정상 운항하면서 임시편을 모두 투입하고 있습니다.제주발 노선에는 오늘 오전까지  아시아나항공 39편, 대한항공 35편,에어부산 18편 등 임시편이 투입돼 체류객 2만7천명이 제주도를 빠져나왔습니다.또 오늘 오전 6시부터 내일 오전 2시까지 제주에서는 정기편 188편,임시편 24편 등  모두 212편,4만 천여석이 공급돼 체류객을 수송할 계획입니다.국토교통부는 여러 항공사에 중복해서 좌석 대기신청을 한 제주 체류객이 많다고 보고 정확한 체류객 숫자를 파악하는 한편 가능한 내일까지 체류객을 모두 이송한다는 목표를 세우고 있습니다. 권은이 기자 bbskwon@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 전지훈련 등 스포츠관광객 유치 시동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 전지훈련 등 스포츠관광객 유치 시동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 속보 제주도, 전지훈련 등 스포츠관광객 유치 시동 원성심 headlinejeju@headlinejeju.co.kr 승인 2016.01.24 08:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 올해 제주에서 개최되는 전국대회와 국제대회 109개 및 겨울철 전지훈련, 골프 등에 대한 자세한 정보가 수록된 '2016 제주에서 열리는 국내.외 스포츠대회' 홍보책자를 이달 중 발간해 스포츠관광객 유치에 나선다고 24일 밝혔다.이 책자는 관광종합안내소 및 관광공사 등 전국 곳곳에 배포된다.제주자치도는 대회 주최.주관 단체와 유기적인 협조체계를 구축하고 대회 참가선수 확보는 물론 가족 등을 함께 유치하기 위해 일반관광과 접목한 다양한 상품을 개발해 유치활동에 나설 계획이다.한편 제주발전연구원이 스포츠관광객 경제적 파급효과를 분석한 결과 1인당 평균 소비지출액은 대회 95만1320원, 전지훈련 140만4000원, 골프 47만4700원으로 나타났다.지난해 제주를 찾은 스포츠관광객 잠정 139만명으로, 지역경제 파급효과는 7851억원 정도로 분석됐다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광 온 베트남인 46명 사흘째 잠적 | 일요신문 본문바로가기 제1587호 뉴스보기 특종/단독 정치 경제 사회 연예 연예계 영화 방송 K-POP 스포츠 야구 축구 스포츠종합 스포츠 하이라이트 경마 문화 건강 여행/레저 전시/공연 생활경제 보도자료 웹세상 책동네 소식 전국 전국뉴스 경인본부 부산/경남 대구/경북 호남 충청본부 강원 제주 월드 해외스타 해외토픽 국제 일요eye 멀티미디어 포토뉴스 TV 연재 일요칼럼 일요캠페인 운세 지난 연재물 기획/연재 탐사보도 만화 완결만화 만화공모전 연재만화 끼 페스티벌 끼 페스티벌 뉴스 끼 페스티벌 영상 끼 페스티벌 포토 경마 서비스 바로가기 정기구독 당신의특종[제보] 로그인 회원가입 페이스북 트위터 유튜브 메인 메뉴 전체서비스 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 기사검색 검색 전체 검색 전체섹션 특종/단독 정치 경제 사회 연예 스포츠 문화 전국 월드 일요eye 멀티미디어 연재 만화 끼 페스티벌 경마 기자 사회 제주도 관광 온 베트남인 46명 사흘째 잠적 온라인 기사 2016.01.15 16:10 공유하기 기사 공유하기닫기 페이스북 트위터 카카오스토리 카카오톡 링크 복사하기 글자 크기 바꾸기 글자 크기 변경닫기 가ty1 가ty2 가ty3 가ty4 기사 인쇄하기 [일요신문] 무비자로 제주도를 방문한 베트남 관광객 46명의 행방이 3일째 파악되지 않고 있다. 사진= 일요신문DB 15일 법무부 제주출입국관리사무소에 따르면 지난 13일 제주도에 위치한 한 호텔에서 숙박 중이던 베트남 관광객 155명 가운데 56명이 사라졌다. 출입국관리사무소는 현재 인근 모텔 등을 수색해 56명 가운데 10명(남 9, 여 1)을 찾았으며, 이들에게 숙소 이탈 경위 및 국내 불법취업 시도 여부 등을 조사하고 있다. 하지만 나머지 46명은 현재까지 행적이 묘연한 것으로 알려졌다. 관계당국은 무비자 외국인들이 주로 불법 취업하는 식당과 공사장 등을 중심으로 수색에 나섰다. 특히, 이들이 다른 지방으로 이탈하는 것을 막기 위해 공항과 항만에 검문을 강화하고 있다. 한편, 숙소를 이탈한 베트남인들은 지난 12일 베트남항공 전세기를 이용해 5박6일 일정으로 제주도 관광을 온 베트남인 155명 중 일부인 것으로 알려졌다. 이수진 기자 sj109@ilyo.co.kr ▶ 저작권자© 일요신문 무단전재 및 수집, 재배포금지 ▶ 일요신문i는 한국기자협회, 인터넷신문위원회, 일요신문 윤리강령을 준수하고 있습니다. 사회 많이 본 뉴스 경인아라뱃길 주차장에서 승용차 15m 아래로 추락…40대 운전자 부상 온라인 기사 ( 2022.10.08 11:50 ) 음주운전 적발 현직 경찰관 정직 2개월 처분 온라인 기사 ( 2022.10.08 11:56 ) 세계 최대 거래소 바이낸스도 뚫렸다…1억 달러 이상 탈취 당해 온라인 기사 ( 2022.10.09 14:16 ) 사회 기사 더보기 많이 본 뉴스 1 '줄 서는 식당' 류진, 압도적 비주얼과 맛에 푹 빠져 폭풍 먹방 2 '최강야구' 독립리그 최강팀 성남 맥파이스와 대결, 이홍구 제자들 찾아 3 무비자 일본여행 앞두고 예약 ’500%’ 폭증…백신 3차례 맞으면 코로나 검사도 면제 4 '가요무대' 최진희, 박재란, 김충훈, 박혜신, 박건, 윤향기, 전유진, 임창제, 이정옥, 임주리, 류지광, 조정민, 더블레스, 이은하 출연 5 '톡파원 25시' 소유, 아이즈원 출신 이채원과 노르웨이 오슬로 여행 떠나 6 '오은영 리포트 결혼지옥' 외도로 상처받은 노부부 출연 "충격 커" 7 민주당 "친일 국방 논란, 반일 색깔론 선동으로 잠재울 수 없다" 8 '동상이몽2' 오상진, 아내 김소영 폭풍 내조 속내 "한량처럼 살고파" 썸타임즈 무서운 중2가 온다! 여자 육상 단거리 샛별 배윤진 ‘최강야구’ 윤준호 포수왕국 두산행 소감은? 월드컵 갈 태극전사 누구? 대한민국 vs 코스타리카 A매치 입중계 일요신문U “한국 골프의 미래” 일요신문-초등연맹회장배 현장 속으로… 풍자 전문가가 윤석열 그림 들고 전국투어 하는 까닭 “파업 노동자 손배소는 노동3권 억압 목적…노란봉투법 제정해야” 스타채널 디 오리지널 필로폰 혐의 돈스파이크, 연예계 마약 수사 트리거 되나 세계 패션인 축제 '파리 패션위크' 수놓은 K팝 스타들 '해트트릭' 손흥민 국대 평가전 앞두고 밝은 표정으로 귀국 사회 많이 본 뉴스 1 경인아라뱃길 주차장에서 승용차 15m 아래로 추락…40대 운전자 부상 2 음주운전 적발 현직 경찰관 정직 2개월 처분 3 세계 최대 거래소 바이낸스도 뚫렸다…1억 달러 이상 탈취 당해 4 "차트 운전한다"던 연예인 앞세운 S코인 리딩 사건…경찰, 임직원 등 수사에 나섰다 5 비트코인 빌려주고 연 이자 60%…법원 “돈아니라 이자 제한 적용 불가” 일요 eye전문가 칼럼 아트 스펙트럼 ‘문화도시’란 자신만의 이야기를 갖춘 도시 하정훈의 육아톡톡 '아이 발달' 위해 부모가 뭘 해야 할까요? 일요신문 신고센터 청소년유해게시물 신고 독자 고충처리 기사제보 띠별 운세 별자리운세 만화 지면 보기 제1587호 발행일 : 2022년 10월 19일 제1586호 발행일 : 2022년 10월 12일 제1585호 발행일 : 2022년 10월 5일 제1584호 발행일 : 2022년 9월 28일 제1583호 발행일 : 2022년 9월 21일 제1582호 발행일 : 2022년 9월 14일 제1581호 발행일 : 2022년 9월 7일 제1580호 발행일 : 2022년 8월 31일 제1579호 발행일 : 2022년 8월 24일 제1578호 발행일 : 2022년 8월 17일 신문 PDF 보기 신문 모아보기 회사소개 개인정보취급방침 이용약관 이메일주소무단수집거부 청소년보호정책 정기구독신청 독자투고 기사제보 청소년유해게시물 신고 독자 고충처리 정정보도 인터넷신문위원회 ㈜일요신문사 서울특별시 용산구 만리재로 192 사업자번호: 106-81-48524 TEL: 02-2198-1515 FAX: 02-738-4675 E-mail : master@ilyo.co.kr 인터넷신문사업등록번호 : 서울, 아04146 인터넷신문사업등록일 : 2016년 8월 29일 일요신문i 발행인/편집인 : 김원양 청소년보호책임자 : 강태선 Copyright(c) 2014 일요신문 All rights reserved. 2022년 10월 11일 (화) 일요신문의 모든 컨텐츠는 저작권법 보호를 받으며, 무단복제 및 복사 배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>데이즈호텔 제주시티 분양형 호텔 제주도 관광수요 품은 알짜 투자처 | 한국경제TV 닫기 와우넷 와우파 한경 KVINA 로그아웃 마이페이지 로그인 고객의견 고객센터 열기 뉴스 SITE MAP 검색하기 검색 최신뉴스 증권 경제 부동산 부동산 뉴스 부동산 컨설팅 산업·IT 가상화폐 국제 취업 취업일반 취·창업뉴스 직업의세계 스타트업CEO 많이 본 뉴스 한국경제TV 와우넷 와우파 회원가입 한경구독 지역별채널 편성표 온에어 HOT 70여년전 한국 위해 싸운 멕시코 노병에 새 보금자리 선물 신라젠 상장폐지냐, 거래재개냐…17만 개미 운명 내일 결정 "美 반도체 규제, 한국 낸드 매출 감소 가능성…중장기적 호재" 한정애 "국민연금, 물적분할에 따른 주가하락으로 1조원 손실" [포토] 유인나, '예쁘다~예뻐~' [포토] 세계 각국의 영화가 모이는 부산국제영화제 [온에어] 마켓인사이트 [굿모닝 한경글로벌마켓] 간만의 연이틀 큰폭 상승... 배경은? - 당신이 잠든 사이 LIVE 코스피 2,183.01 (49.83 2.23%) 코스닥 670.35 (28.14 4.03%) 버튼 가상화폐 시세 관련기사 보기 정보제공 : 빗썸 닫기 TV 증권 주식상담 경제 기업·CEO 생활경제 특집 전체 프로그램 LIVE 한국경제TV 굿모닝 한경 글로벌마켓 1부 굿모닝 한경 글로벌마켓 2부 오늘장 뭐사지? 코리아마켓 [#내여주] 경주마 (경제주식마무리) 뉴스플러스 매수자들 프리뷰 뉴욕 경제전쟁 꾼 (금요일) 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 많이 본 뉴스 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 HOME 뉴스 최신뉴스 ​ `데이즈호텔 제주시티` 분양형 호텔! 제주도 관광수요 품은 알짜 투자처! 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 페이스북 노출 0 입력 2016-01-15 17:36 목록으로 댓글달기 댓글 인쇄하기 인쇄 글자 크게 글자 작게 `데이즈호텔 제주시티` 분양형 호텔! 제주도 관광수요 품은 알짜 투자처! SITE MAP [와우넷 오늘장전략] 나스닥 27개월래 최저..일본 무비자 관광 허용-와우넷 오늘장전략 와우넷 공개방송 보기 &gt; 제주공항 이용객은 2010년에 1572만 명 이었지만 4년여 만에 47.6% 증가한 2320만 명을 기록했다. 현재 제주공항의 수용 능력은 2500만 명 정도로 한계치에 도달했다. 이에 정부는 2025년 완공을 목표로 제주 제2 신공항을 건설할 예정이다.신공항이 완공되면 제주도는 기존 제주공항과 함께 연간 4500만 명을 수용할 수 있게 된다. 또한, 신공항 및 주변 개발이 이루어지게 되면 완공 이 후 7년 동안 누적 경제효과는 2조 764억 원에 이를 것으로 전망된다.이러한 수치가 증명하듯 현재 제주도는 국내외 관광객이 매년 큰 폭으로 상승하며 대한민국 대표 관광지로 자리매김하고 있다. 이에 제주의 부동산 시장이 들썩이며 투자자들이 몰리고 있는 상황이다.특히 관광객 유입이 수익으로 이어지는 분양형 호텔로 투자자들의 걸음이 쏠리고 있다. 특히나 신공항 건설 이후에는 관광객의 유입이 높아질 것으로 기대되기 때문에 수요에 맞춘 공급이 필요한 상황이다. 최근 분양이 성황리에 이루어지면 마감을 앞두고 있는 데이즈호텔 제주시티가 많은 투자자들의 인기를 얻고 있다.호텔운영을 위해서는 어느 정도의 기본인력은 무조건 투입될 수 밖에 없다 보니 300실은 넘어야 효율성이 높아지는데 데이즈호텔 제주시티는 제주에서 보기 드문 375실 규모의 대형호텔로 효율성과 수익률을 극대화 했다. 또한 국내 최고 호텔운영전문기업인 산하HM이 운영사로 짧은 기간 내에 호텔 가동률을 극대화 할 수 있는 시스템과 네트워크를 갖추고 있어 안정적인 수익률을 제공 할 수 있다.여기에 제1금융으로부터 PF를 조성하였으며 국제 자산신탁에서 직접 분양관리, 공사비 지급 등 모든 시행업무를 책임지고 있어 사업성과 수분양자들의 안정성을 보장해 주어 투자자들의 만족도를 높여준다.데이즈호텔 제주시티는 전세계 1위 호텔기업인 윈덤그룹의 대표브랜드다. 윈덤그룹은 현재 전세계에 데이즈호텔을 비롯한 66개국, 17개의 브랜드를 보유한 세계 최고의 호텔그룹으로 특급호텔에서 비즈니스 호텔까지 7,600 여 개의 호텔을 운영 중이다. 특히, 중국에만 100개가 넘는 호텔이 있어 중국인 관광객들의 선호도가 높을 것으로 기대돼 객실 가동률의 안정성을 높여준다.또한, 데이즈호텔 제주시티는 행정, 문화, 상권의 중심지에 위치해 있어 공항에서 호텔로, 호텔에서 관광지로의 이동이 편리하다. 제주공항과 국제여객터미널과는 10분 거리이며, 신라와 롯데면세점, 5개의 카지노 그리고 바오젠거리가 또한 10분 거리에 있다. 여기에 제주법원, 지방법원, KBS, 교육청 등의 관공서가 있어 관광객뿐 아니라 비즈니스객들의 수요 또한 많을 것으로 기대 된다.데이즈호텔 제주시티는 지하 2층~지상10층 A타입 48.22㎡ 155실, B타입 50.91㎡ 72실, C타입 45.13㎡ 36실, D타입 45.40㎡ 111실, E타입 81.61㎡ 1실 총 375실의 규모로 다양한 고객의 니즈에 맞춰 폭넓은 고객 유치가 가능하며, 호텔 내 중정을 도입해 자연 채광을 누릴 수 있다.또한, 대형버스 6대가 동시에 주차 가능한 주차시설, 레스토랑, 연회장, 비즈니스센터, 피트니스 등 특급 호텔에 어울리는 다양한 부대시설도 갖춰지게 된다.홍보관은 현재 강남 서초구 양재동에 위치하고 있으며, 평소 홍보관이 붐비는 관계로 방문예약제를 실시하며 사전에 대표번호를 통해 예약하고 방문하는 것을 추천한다. 분양문의는 02-2058-2800로 하면된다. 데이즈호텔 제주시티 호텔 데이즈호텔 제주시티 와우넷 오늘장전략 핀핀하기 페이스북 페이스북 트위터 트위터 카카오스토리 카카오스토리 블로그 블로그 링크 복사 링크 복사 좋아요 00 싫어요 00 후속기사 원해요 00 목록으로 목록 인쇄하기 인쇄 관련뉴스 마이핀 코로나연준반도체러시아 tab area 뉴스 기자 방송 파트너 킹스맨 임종혁대표 하창봉대표 김형철대표 와우캐시 와우넷에서 실제 현금과동일하게 사용되는 사이버머니 캐시충전 서비스 상품 파트너방송 증권·부동산 교육 월정액 서비스 파트너 방송 GOLD 한국경제 TV 실시간 방송 구매하기 이용안내 GOLD PLUS 골드서비스 + VOD 주식강좌 구매하기 이용안내 파트너 방송 파트너방송 + 녹화방송 + 회원전용게시판+SMS증권정보 + 골드플러스 서비스 구매하기 이용안내 고객센터 강연회·행사 더보기 7일간 등록된 일정이 없습니다. 이벤트 7일간 등록된 일정이 없습니다. 공지사항 더보기 [한국경제TV] [고지] 한국경제TV 이용약관 개정 안내 1:1문의하기 시민제보하기 open ​​ 뉴스 목록 보기 arrow 뉴스 최신뉴스 증권 경제 부동산 산업·IT 가상화폐 국제 취업 칼럼·연재 출근전 꼭 글로벌 브리핑 글로벌 시황&amp;이슈 GO WEST 증시프리즘 용와대에선 글로벌마켓 A/S 국제경제읽기 글로벌 구루에게 듣는다 슬기로운 금융생활 권영훈의 집중탐구 증권 국내증시 해외증시 특징주 매매신호 인기검색종목 연예·스포츠·여행 연예·스타 스포츠 국내여행 해외여행 많이 본 뉴스 RSS | 구독 TV 목록 보기 증권 K-스탁 라이브 굿모닝 한경 글로벌마켓 1,2부 [홈] 마켓인사이트 성공투자 오후증시 1-2부 [홈] HOT 정오의 머니머니 증시투데이 출발증시 투데이 한경 코리아마켓 HOT 한경 글로벌마켓 HOT 대박천국 1-3부 [홈] HOT 대박천국 1부 대박천국 2부 대박천국 3부 대박천국 선데이 1-3부 [홈] 대박천국 프리미엄 주식상담 국고처 프라이데이 1-2부 [홈] 국고처 프라임 국민주식고충처리반 1~5부 [홈] 경제 경제전쟁 꾼 시즌2 경주마 HOT 뉴스플러스 HOT 미네르바 클래스 HOT 쓰리고 아이돌 경제학교 생활경제 건강매거진 1-3부 [홈] 버추얼토크 가상자산 치아건강 닥터스 기업·CEO 기업가정신 콘서트 기업가정신을 말하다 혁신성장코리아 특집방송 바이오 1번지 보스턴에 가다 1-2부 [홈] 와우넷 스페셜 [홈, 19人] HOT 추석 이후 투자전략 1-4부 [홈] 전체 프로그램 고객 참여 기사정정삭제 | 의견 이벤트 이용약관 개인정보처리방침 기사배열기본방침 YouTube 서비스 약관 Google 개인정보처리방침 패밀리사이트 패밀리사이트 한국경제TV 와우넷 와우파 한경 KVINA 한경미디어그룹 한국경제신문 한국경제매거진 BOOK 한경아카데미 텐아시아 모바일앱 한국경제TV앱 주식창앱 와우넷앱 와우밴드앱 한경 KVINA앱 회사소개 상시채용 고객센터 광고안내(인터넷·TV) 제휴문의 사이트맵 고객센터 안내 1599-0700 월 ~ 금 08:00 ~ 23:00 일요일 12:30 ~ 22:30 토·공휴일 10:00 ~ 15:00 (주)한국경제티브이 대표이사 조주현 서울특별시 중구 청파로 463(중림동, 한국경제신문사) (우:04505) 사업자등록번호 : 107-81-70183 통신판매업신고번호 : 서울중구 2022-0572호 호스팅제공자 : (주)한국경제티브이 기사배열 책임자 : 유은길 Copyright&amp;copy 한국경제TV. All Rights Reserved. 인쇄하기 닫기 인쇄하기 인쇄 2016-01-15 17:36 `데이즈호텔 제주시티` 분양형 호텔! 제주도 관광수요 품은 알짜 투자처! 제주공항 이용객은 2010년에 1572만 명 이었지만 4년여 만에 47.6% 증가한 2320만 명을 기록했다. 현재 제주공항의 수용 능력은 2500만 명 정도로 한계치에 도달했다. 이에 정부는 2025년 완공을 목표로 제주 제2 신공항을 건설할 예정이다.신공항이 완공되면 제주도는 기존 제주공항과 함께 연간 4500만 명을 수용할 수 있게 된다. 또한, 신공항 및 주변 개발이 이루어지게 되면 완공 이 후 7년 동안 누적 경제효과는 2조 764억 원에 이를 것으로 전망된다.이러한 수치가 증명하듯 현재 제주도는 국내외 관광객이 매년 큰 폭으로 상승하며 대한민국 대표 관광지로 자리매김하고 있다. 이에 제주의 부동산 시장이 들썩이며 투자자들이 몰리고 있는 상황이다.특히 관광객 유입이 수익으로 이어지는 분양형 호텔로 투자자들의 걸음이 쏠리고 있다. 특히나 신공항 건설 이후에는 관광객의 유입이 높아질 것으로 기대되기 때문에 수요에 맞춘 공급이 필요한 상황이다. 최근 분양이 성황리에 이루어지면 마감을 앞두고 있는 데이즈호텔 제주시티가 많은 투자자들의 인기를 얻고 있다.호텔운영을 위해서는 어느 정도의 기본인력은 무조건 투입될 수 밖에 없다 보니 300실은 넘어야 효율성이 높아지는데 데이즈호텔 제주시티는 제주에서 보기 드문 375실 규모의 대형호텔로 효율성과 수익률을 극대화 했다. 또한 국내 최고 호텔운영전문기업인 산하HM이 운영사로 짧은 기간 내에 호텔 가동률을 극대화 할 수 있는 시스템과 네트워크를 갖추고 있어 안정적인 수익률을 제공 할 수 있다.여기에 제1금융으로부터 PF를 조성하였으며 국제 자산신탁에서 직접 분양관리, 공사비 지급 등 모든 시행업무를 책임지고 있어 사업성과 수분양자들의 안정성을 보장해 주어 투자자들의 만족도를 높여준다.데이즈호텔 제주시티는 전세계 1위 호텔기업인 윈덤그룹의 대표브랜드다. 윈덤그룹은 현재 전세계에 데이즈호텔을 비롯한 66개국, 17개의 브랜드를 보유한 세계 최고의 호텔그룹으로 특급호텔에서 비즈니스 호텔까지 7,600 여 개의 호텔을 운영 중이다. 특히, 중국에만 100개가 넘는 호텔이 있어 중국인 관광객들의 선호도가 높을 것으로 기대돼 객실 가동률의 안정성을 높여준다.또한, 데이즈호텔 제주시티는 행정, 문화, 상권의 중심지에 위치해 있어 공항에서 호텔로, 호텔에서 관광지로의 이동이 편리하다. 제주공항과 국제여객터미널과는 10분 거리이며, 신라와 롯데면세점, 5개의 카지노 그리고 바오젠거리가 또한 10분 거리에 있다. 여기에 제주법원, 지방법원, KBS, 교육청 등의 관공서가 있어 관광객뿐 아니라 비즈니스객들의 수요 또한 많을 것으로 기대 된다.데이즈호텔 제주시티는 지하 2층~지상10층 A타입 48.22㎡ 155실, B타입 50.91㎡ 72실, C타입 45.13㎡ 36실, D타입 45.40㎡ 111실, E타입 81.61㎡ 1실 총 375실의 규모로 다양한 고객의 니즈에 맞춰 폭넓은 고객 유치가 가능하며, 호텔 내 중정을 도입해 자연 채광을 누릴 수 있다.또한, 대형버스 6대가 동시에 주차 가능한 주차시설, 레스토랑, 연회장, 비즈니스센터, 피트니스 등 특급 호텔에 어울리는 다양한 부대시설도 갖춰지게 된다.홍보관은 현재 강남 서초구 양재동에 위치하고 있으며, 평소 홍보관이 붐비는 관계로 방문예약제를 실시하며 사전에 대표번호를 통해 예약하고 방문하는 것을 추천한다. 분양문의는 02-2058-2800로 하면된다. 한국경제TV</t>
+  </si>
+  <si>
+    <t>제주도 스마트관광 서비스 기반 구축된다 &lt; 대학가 &lt; 교육 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 교육 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 본문영역 이전 기사보기 다음 기사보기 제주도 스마트관광 서비스 기반 구축된다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 교육 대학가 제주도 스마트관광 서비스 기반 구축된다 기자명 김동일 기자 입력 2016.01.08 16:03 수정 2016.01.08 16:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주대 GIS센터-KT하이텔, 업무협약 체결 제주도에 스마트관광을 위한 다양한 서비스기반이 구축될 전망이다.제주대학교 GIS(지리정보시스템)센터(센터장 최용복)와 KT하이텔주식회사(ICT부문장 정훈)는 최근 제주대에서 'ICT기반의 스마트관광분야 기술협력 및 공동사업 발굴에 관한 협약'을 체결했다.양 기관은 정보교류 및 협력체계를 구축, 제주 스마트관광 활성화를 위한 다양한 협력사업을 추진한다.특히 제주도는 개별관광객의 지속적인 증가에 따라 모바일서비스를 통한 스마트관광 여행상품에 대한 수요가 증가하고 있다.이에 따라 관광객 수요에 적극 대응하기 위해 GIS기반의 스마트관광서비스를 개발해 제공키로 했다.주요 협력분야는 △스마트 관광 서비스플랫폼 구축 △GIS기반의 융합 사업과제의 발굴 및 협력 등이다.이와 함께 제주대 GIS센터는 KT하이텔이 제공하는 빅데이터와 스마트관광서비스 관련 기술을 바탕으로 제주관광GIS 플랫폼을 구축한다.이번 협약으로 GIS기반의 스마트관광서비스를 통해 관광객들의 만족도를 증대하고 ICT기술과 관광이 융합, 고부가가치를 창출할 것으로 기대를 모으고 있다.최용복 센터장은 "이번 협약이 제주의 스마트관광산업의 발전에 이바지할 수 있는 계기가 됐으면 한다"고 말했다. 김동일 기자 kdi@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달의 Best 관광인...오영희씨 선정 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 이달의 Best 관광인...오영희씨 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 이달의 Best 관광인...오영희씨 선정 기자명 고병수 기자 입력 2016.01.16 14:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주도관광협회가 선정한 이달의 Best 관광인 오영희씨. (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회(회장 김영진)는 14일 제주웰컴센터 대회의실에서 “칭찬합시다” 이달의 베스트 관광인으로 유)제주자유여행사 오영이씨를 선정하고 선정패와 친절 키움 꽃 화분을 전달했다.Best 관광인으로 선정된 오영이 부장은 지난 2003년 유)제주자유여행사에 입사해 13년간 제주도관광 친절서비스를 향상시키는데 고객이 최우선이라는 이념을 가치로 제주도를 방문하는 관광객들이 잊지 못 할 추억을 간직하도록 노력을 해 왔다. 관계자는 “앞으로도 제주관광 친절서비스에 모범이 되는 베스트 관광인을 매월 선정해 수범 사례를 공유하고 이를 계기로 제주관광 서비스 제공의 최일선에서 일익을 담당하는 종사    자들의 친절 및 서비스 마인드를 한 단계 높혀 나갈 계획”이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>관광과 투자 1번지 제주도, 이제는 주택임대관리업시대다 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 관광과 투자 1번지 제주도, 이제는 주택임대관리업시대다 제주도 부동산전문가, 스마트하우스 제주1호점 진성효 대표를 만나다 민병희 기자 입력 : 2016.01.04 11:22:50   수정 : 2016.01.04 13:23:08 스마트하우스 제주1호점 진성효 대표(이하 ‘진 대표’)를 제주의 강남이란 노형동에서 만났다. 노형동은 일찍이 사시패스의 산실로서 주거와 교육, 상업 및 호텔 등 복합도시로서 도내 최고 랜드마크 지역이다. 노형동과 인접한 연동 등 신제주 일대는 유커와 크루즈 관광의 최고 명소인 롯데시티와 신라면세점, 인센티브 관광의 상징인 바오젠거리(차없는 거리)를 만들만큼 국내외적으로 관광과 투자, 이주 1번지라 해도 과언이 아니다. 국내 최대 도심 복합리조트 드림타워의 착공을 비롯하여 신 제주 일대와 인접한 연예인 투자1번지 애월읍은 중국성 개발리조트와 타운하우스 개발압력이 거세지며 주택과 수익용부동산 등 전국 최고의 수익률을 과시하며 주거난도 심각한 편이다. 진 대표는 진기록도 많다. 제1회라는 공인중개사, 부동산권리분석사, 부동산경매분석사 자격시험 등을 합격하였고, 초대 전국 부동산대학원 총연합회 학술교육위원장(前)과 중국경매 국내 첫 매경칼럼 소개 그리고 제주한라대 경매상담사과정 도내 첫 진행도 한 바 있다. 최근에는 매경부동산자산관리사 교육과정과 스마트하우스 주택임대관리 실무아카데미도 수료했다. 그 외에도 경매야 한판 붙자 등 다수 출간을 비롯하여 매일경제 등 언론매체 다수 집필활동, 명지대학원/제주대/경찰청/교육청 출강 등 두루 경력을 갖춘 전국구 부동산전문가다. 지금은 도내에서는 처음으로 다양한 경륜을 기반으로 공동중개/공동개발/분양과 수익용부동산의 임대관리 대행 및 경공매 등 부동산자산관리 풀 서비스를 수행하고 있다. “스마트하우스 제주점(010-2696-2344/064-746-2344, 제주시 원노형 남2길 39)은 단순 임대차관리에서 공실/연체/행정/시설 등의 종합서비스를 제공하게 된다. 특히, 오픈기념으로 선착순 100명까지는 부동산자산관리 특별 무료상담 및 자문을 실시하고 있다.”라며 부동산종합서비스 제공에 대한 강한 자신감을 내비쳤다. 스마트하우스 전국 회원점 가입문의는 1566-5423 또는 스마트하우스홈페이지(www.smarthaus.co.kr)를 방문하시면 다른 지역 회원점 정보와 다양한 주택임대관리 정보를 얻을 수가 있다.[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 오늘의 핫뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나"   1시간 29분"나도 내 집 없는데"…외국인 국내 아파트 3만채 매입   1시간 26분"과천 송파를 2년전 분양가로"…'줍줍의날' 미리 메모   18시간 56분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   2시간 26분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나" "나도 내 집 없는데"…외국인 국내 아파트 3만.. "과천 송파를 2년전 분양가로"…'줍줍의날' 미.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 감사원 국감두고 여야 기싸움…10분만에 '정회.. 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 美.. 3[단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계약.. 4금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 5"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 음.. 1선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 2김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 3치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 3조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 4유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 5박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 관광과 투자 1번지 제주도, 이제는 주택임대관리업시대다 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>제주도, 관광업체 경쟁력 제고 마케팅 등 컨설팅 지원 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광업체 경쟁력 제고 마케팅 등 컨설팅 지원 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광업체 경쟁력 제고 마케팅 등 컨설팅 지원 기자명 고병수 기자 입력 2016.01.15 01:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주도는 제주도관광협회와 공동으로 지역 관광사업체의 경쟁력 제고를 위해 관광사업자에 대한 세무, 회계,  노무, 관광기본지식, 마케팅 등 교육과 회사 경영 노하우 컨설팅을 지원해 나간다고 14일 밝혔다.이에 따라 우선 관광사업체 교육과 컨설팅을 지원할 멘토단을 2월까지 구성할 계획이다.멘토잔에는 도내 업계, 학계 등 전문가를 비롯해 한국관광공사 및 한국문화관광연구원과 연계해 중앙의 전문가를 초빙한다. 올해 3월부터 교육 및 컨설팅을 희망하는 관광사업체 50개를 선정하고 오는 4월부터 10월까지 관광사업자에 대한 회계, 노무 등 교육과 컨설팅을 주 1∼2회 실시한다. 이런 컨설팅 지원으로 사업체 역량강화, 경영개선 지원, 네트워크 구축, 관광객 만족도 향상 등 지역관광 활성화로 연계되도록 할 계획이다.도 관계자는 “관광사업체 컨설팅 지원한 결과를 바탕으로 올해 11월에는 관광사업체에 대한 교육 및 컨설팅 효과를 분석하고 수범사례를 발굴해 관광업계에 전파․공유 등 피드백을 으로 관광사업체가 지속가능하게 소득이 향상되도록 지원해 나갈 계획”이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈 관광객 출국심사 1시간이내 단축 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도, 크루즈 관광객 출국심사 1시간이내 단축 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도, 크루즈 관광객 출국심사 1시간이내 단축 CBS노컷뉴스 김대휘 기자 메일보내기 2016-01-01 16:54 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 제주항 국제여객터미널을 이용해 출국하는 크루즈 승객의 보안검색을 포함한 출국심사가 1시간 이내로 단축될 전망이다. 제주도는 크루즈객 100만명 시대를 맞아 오는 2월부터 출국심사를 1시간 이내로 단축해 제주관광과 쇼핑 체류시간을 늘릴 계획이라고 1일 밝혔다.당초 출국심사는 국제여객터미널 개장한 지난해 11월에는 크루즈 승객 3000명을 기준했을 때 3시간정도 소요됐으며, 2개월이 지난 현재 1시간 50분 정도로 줄어들었지만 더 단축이 필요하는 지적이 제기돼왔다.제주도는 이의 추진을 위해 외국 국적의 크루즈 승객이 '국제항해선박과 항만시설의 보안에 관한 법률'에 따라 보안검색 대상인지 아닌지를 법제처에 유권해석을 의뢰했다. 더 클릭 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "좋은 냄새난다" 병사들 상습 추행 …"징계 가혹"하다는 군 간부 [르포]'나눔이·농부' 판치는 다크웹…'마약과의 전쟁' 비웃나 [칼럼]핵위협 공포에 휩싸인 한반도 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 CBS노컷뉴스 김대휘 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 제2도약 질적관광 원년…도민 행복관광 실현 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 제2도약 질적관광 원년…도민 행복관광 실현 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 제2도약 질적관광 원년…도민 행복관광 실현 기자명 고병수 기자 입력 2016.01.05 14:38 수정 2016.01.05 14:46 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주도는 관광산업 질적 성장과 도민이 행복한 관광 실현을 위해 5대 정책을 중점 추진해 나간다고 5일 밝혔다.이를 위해 도는 ▲ 제주관광 질적 성장을 위한 정책 기반 조성 구축 등으로 제주관광의 질적 성장이 투영된 통계체계를 구축 ▲ 국내외 관광 마케팅 체제 정비 및 효율성 제고 ▲ 관광 수용태세 글로벌화 ▲ 지역 관광산업 경쟁력 강화에 나선다. 그리고 환경과 제주의 미래가치를 높이는 관광개발을 중점 추진할 계획이다. 도 관계자는 "앞으로 질적 성장을 통한 관광산업 발전 혜택이 도민에게 고루 돌아가도록 추진하면서 스마트 관광, 관광컨텐츠가 풍부한 관광, 친절․청결한 제주가 되도록 해 관광객이 만족하고 오래 머물고 다시 찾을 수 있도록 하겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[뉴스파일] 제주도, 낚시어선 이용 관광객 운송 허용-국민일보 시사 시사 &gt; 전체기사 [뉴스파일] 제주도, 낚시어선 이용 관광객 운송 허용 입력 : 2016-01-04 20:19 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도는 올해 새롭게 도입되는 해양수산 분야 자치법규 정비 내용에 따라 해녀의 명칭이 통일되고, 낚시어선을 이용한 해양레저 관광객 운송도 허용된다고 4일 밝혔다. 3년마다 발급·갱신해야 하는 해녀증 유효기간도 폐지된다. 진료비 지원 대상도 도내에 거주하면서 현재 물질조업을 하고 있는 해녀와 만65세까지, 그리고 15년 이상 해녀생활을 했던 자로 한정된다. GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다”</t>
+  </si>
+  <si>
+    <t>제주도, 낚시어선 관광객 승선허용...해양수산 자치법 정비 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 낚시어선 관광객 승선허용...해양수산 자치법 정비 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 낚시어선 관광객 승선허용...해양수산 자치법 정비 기자명 고병수 기자 입력 2016.01.02 16:44 수정 2016.01.02 16:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 2일 제주특별자치도에 따르면 올해부터는 그 동안 잠수, 해녀 등으로 혼용해 왔던 용어를 '해녀'로 통일하고 낚시어선 해양레저 관광객 승선을 허용하는 해양수산관련 법규가 정비돼 본격 시행된다고 밝혔다.주요내용으로 해녀, 잠수 혼용으로 혼란이 대왔던 명칭을 해녀 분들이 가장 많이 사용하고 선호하는 '해녀'로 통일했고 3년마다 발급․갱신하는 해녀증 유효기간을 폐지해 고령화 되어가는 해녀 분들의 불편이 사라졌다. 또한 진료비 지원 대상을 도내에 거주하면서 현재 물질조업을 하고 있는 해녀, 만65세까지 그리고 15년 이상 해녀생활을 하였던 자로 명확히 규정했다. 그리고 기존 전직 해녀 중 만 65세 미만이며 해녀경력이 5년 미만인 사람을 지원 대상에서 제외된다.해녀 질병 진료비 지원사업은 지난 1999년도부터 진료비를 지원해 오고 있으며 2014년도까지 330억원을 지원했고 2015년도에는 49억 원을 지원하고 있다. 이와 함께 내년부터는 도 조례가 정하는 안전시설을 갖춘 낚시어선은 해양레저를 목적으로 스킨다이빙 또는 스쿠버다이빙을 하려는 사람을 운송하도록 허용해 제주도는 낚시어선을 이용한 해양레저 관광객 운송이 허용된다. 관계자는 "낚시어선이 도내에서 해양레저 관광객을 운송할 수 있을 경우 연간 4~5만명의 관광객 운송으로 어촌경제 활성화에 크게 기여할 것"이라며 "제주도를 찾는 관광객들이 보다 안심하게 해양레저 활동을 하도록 안전점검 등도 강화해 나갈 계획"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 1,300만 시대, ‘제주 엘리시움 2차’ 분양 주목 :: 매일경제TV 뉴스 매일경제 MBN MBNGOLD 매경증권아카데미 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 로그인 회원가입 고객센터 TV TV홈 채널안내 편성표 전체프로그램 뉴스 뉴스홈 전체 경제&amp;금융 증권 산업 부동산 지방뉴스 증권 증권홈 현재가 투자전략 뉴스 시세 마이스탁 부동산 온에어 채널안내 편성표 통합검색 종목검색 검색 닫기 제주도 관광객 1,300만 시대, ‘제주 엘리시움 2차’ 분양 주목 기사입력 2016-01-05 10:50 지난해 제주도를 찾은 관광객은 1,300만 명에 육박했다. 이는 전년대비 13.1% 증가한 수치이며, 이에 따른 영향으로 제주도의 부동산시장도 함께 달아오르고 있다. 각종 개발 호재로 제주도 부동산 시장은 연일 상승곡선을 그리고 있는 실정이다. 그 가운데 제주 엘리시움 2차 청약 접수 시작되고 있어 화제다. 제주 ‘엘리시움 빌리지’는 제주시 애월읍 고성리 일원의 바다가 넓게 보이는 한라산 중산간 위치에 조성되며 총 173실 면적은 10.467평의 대단지 규모다. 그 규모는 축구장4배, 야구장3배 크기로 대한민국 최대의 글램핑 빌리지를 구축하고 있으며, 토지 분양면적은 168㎡(50평)~ 331㎡(100평)이고 시설 전용면적은 40㎡(12평) 단층 단독 풀/스파형 테마 글램핑 리조트이다. 아름다운 한라산의 자연경관과 바다조망, 각 동마다 최고급 스파시설 완비 최상의 서비스를 통해 일상에 지친 현대인과 커플, 친구, 가족과 함께 휴식을 취할 수 있는 대표적인 힐링공간으로 고객들의 관심과 문의가 급증하고 있다. 엘리시움 관계자는 “포항 최초로 호텔형 오피스텔 286세대를 100% 분양완료 하였고, 그 뒤를 이어 제주 엘리시움2차 청약 접수를 앞두고 있다.”라며”제주 엘리시움은 새로운 분양시장의 활로개척을 목표로 나아가 대한민국 글램핑 시장의 일등 랜드마크로 자리 잡을 것이다.”라고 전했다. 제주도는 잇따르는 개발호재 소식에 더욱 관심을 모으고 있다. 올 2월에 착공된 신화역사공원 개발 사업은 2018년까지 특급호텔, 컨벤션센터, 휴양리조트, 테마파크, 워터파크, 세계음식테마거리, 면세점, 국내 최대의 외국인 전용 카지노, 고급쇼핑시설 등이 갖춰진 대한민국 최대의 복합리조트로 조성될 예정이다. 또한 제주도는 영어교육도시로 확고히 발돋움하기 위해 약379만m²부지에 사업비 약1조7800억 원을 투입해 2021년 말까지 7개의 국제학교와 10여 개의 단과대를 갖춘 외국교육기관, 영어교육센터, 교육문화시설 등이 조성될 예정이다. 제주 엘리시움의 운영관리는 전문 위탁 관리운영사인 캠핑타임즈와 임대(MOU)계약을 체결하였다. 차별화적인 운영관리를 통한 테마 컨텐츠와 스토리텔링이 있는 전문 특화 개발로 고부가가치의 관광상품 개발에 박차를 가할 전망이다. 저렴한 분양가도 눈길을 끈다. 7000만원에서 8000만원으로(평당150만원~160만원) 이는 토지168㎡(50평), 시설물 전용면적 40㎡(12평)이 분양가에 포함된 금액이며, 이는 지금 현재 분양하고 있는 호텔, 오피스텔, 리조트, 레지던스의 1/2금액이며 풀빌라, 팬션, 단독주택의1/3 수준으로 알려졌다. 한편 청약 접수일자는 2015년 12월19일부터~2016년 1월3일까지 이며 모델하우스 위치는 용인시 기흥구 지곡동 609-2번지 1층에 있으며 모든 방문고객에게 사은품으로 엘리시움 10만원 이용권을 지급 매주 금, 토, 일 방문 고객(문의 예약자에 한함)에게 제주도 여행 상품권, 엘리시움 1박 이용권을 지급한다. 문의 1899-1751 [매일경제TV 인터넷팀] [ⓒ 매일경제TV &amp; mktv.co.kr, 무단전재 및 재배포 금지 ] 화제의 뉴스 · 코스피 2% 가까이 하락…2,193.02 개장 · [특징주] LG전자, 3분기 실적 실망에 장 초반 하락세 · 이달 10일까지 수출 20%감소…무역적자 38억 달러 · 오늘부터 일본 무비자 관광 가능…2년 7개월 만 · 오늘부터 개량백신 접종 시작 오늘의 이슈픽 인기 영상 영상아이콘 삼성전자 3분기 '어닝쇼크'…반도체 수요 감소·가격 하락에 영업이익 32... 영상아이콘 제약바이오업계, 4분기 채용문 '활짝'…종근당·대웅제약 등 80여개사, ... 영상아이콘 볼보의 수입차 3위 도약 '비밀병기' S60·V60, 동시 출격 영상아이콘 이재준 수원시장 "시민 주체 행정혁신"…취임 100일 비전 선포 게시물 삭제기준 가장 많이 본 뉴스 1우크라전에 정신 빼앗겨 '뒷마당'도 못챙기는 러시아 2돌고래 250마리 또 집단 폐사…왜 이런 일 반복될... 3"꼬박꼬박 국민연금 낸 우린 뭔가"…기초연금 40만... 4"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가... 5신라젠·코오롱티슈진 증시퇴출 여부 이달 결론 6[주간증시전망] 한국은행 금통위·미국 CPI에 주목 7[주간증시전망] 실적 부진·금리 인상에 변동성 확대... 8청년들 몰려 월세마저 품귀…"집도 안 보고 계약금 ... 9평택시, 고덕 삼성반도체에 8개월간 수도 요금 5배... 10"이럴거면 왜 미리 발표했나"…행복주택 공급일정 줄... 투데이 포커스 코스피 2% 가까이 하락…2,193.02 개장 [특징주] LG전자, 3분기 실적 실망에 장 초반 하락세 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1% 내려 오늘부터 개량백신 접종 시작 [오늘 날씨] 전국 출근길 5도 내외…낮 최고 21... 화제의 뉴스 제조업 4분기 경기 전망 먹구름…신산업·ICT도 부진 근로소득 상위 0.1%·평균 연봉 8억인데 세금 '0원'인 사람 8명 7년간 외국인이 국내 아파트 3만 채 구입…중국인 62% 마요네즈·국수 3개월 연속 가격 올랐다 지난해 조세회피 투자 100억 달러 넘어…해외투자 15% 차지 포토뉴스 매일경제TV 소개 이용약관 개인정보취급방침 기타운영정책 고객센터 시청자제보 광고제휴안내 RSS Family Site MBN 매일경제 매경닷컴 MBNGOLD 매경이코노미 CITYLIFE M-PRINT 방송프로그램 02-2000-4999 매일경제TV의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. (주)매일경제TV I 대표이사 장용수 I 서울시 중구 퇴계로 190 매경미디어센터 Copyright © 매일경제TV All rights reserved.</t>
   </si>
   <si>
     <t>성산일출봉 맛집 '해월향' 제주도흑돼지 현지인과 관광객들에게 인기 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 건설/부동산 성산일출봉 맛집 '해월향' 제주도흑돼지 현지인과 관광객들에게 인기 박은선 기자 silver@betanews.net 기사 입력 : 2016-01-01 15:44:19 신정연휴를 맞아  커플,가족,단체여행을 하면서 함께 할 수 있는 볼거리, 먹거리, 즐길 거리를 두루 갖춘 여행지로 많은 이들이 제주도를 꼽는다. 국내 여행지 중에서 볼거리로 보자면 으뜸으로 꼽히는 제주도는 공항에서부터 열대나무들과 넓게펼쳐진 바다가 이국적인데 여행의 설렘을 한층더 고조시켜준다. 제주도의 대표관광명소중 한라산은 세계자연유산 유네스코 3관왕을 차지할정도로 자연경관이 빼어나고 그 외 제주도 가볼만한곳으로 섭지코지,아쿠아플라넷제주,제주도유람선,우도,등 열거할수 없을 정도로 많다. 제주도 여행코스중  빠질수 없는게 먹거리인데  제주도에서 갓잡아올린 활어회와 각종해산물,갈치조림,오분자기뚝배기,그중에도 가장 사랑받는  제주도 천연기념물인 제주도흑돼지는 꼭 맛보아야할 메뉴이다. 성산일출봉 맛집,섭지코지 맛집 으로 유명한 해월향은 넓은주차장과 언덕위에 2층건물이 인상적인데 입구에 흑돼지돌상은 아이들에게도 인기있는 마스코트가 된지 오래다. 해월향은 제주도흑돼지를 좀더 쫄깃하면서 육질을 살리기 위해서 숙성냉장고를 여러대 비치,단계별로 숙성을 하는데  온도조절등 세심한 관리로 숙성해서, 한결같이 육즙이 살아있으면서 흑돼지의 고소한맛을 살리고 있다. 여기에 상큼한샐러드와 정갈한밑반찬,도 흑돼지와 곁들이기에 부족함이 없다. 해월향은 제주도현지인들 사이에서도 입소문난  맛집인데 어려서부터  흑돼지를 즐겨먹는 제주도주민들은 해월향의 흑돼지맛을 일주일에도 2~3번씩  즐길정도로 칭찬이 자자하다.잘익은 흑돼지를 멜젓에 찍어먹으면 육지에서 먹었던 맛과 비교해보면 차이점을 알수 있다. 해월향의 대표 메뉴 흑돼지구이외에 갈치조림 , 전복뚝배기등도 있으며 365일 연중무휴,발렛파킹서비스가 가능하다. 베타뉴스 박은선 기자 (silver@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 건설/부동산 &gt;&gt; 건설뉴스 부동산뉴스 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
@@ -428,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -461,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -471,6 +615,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -480,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,6 +637,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -499,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -510,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -521,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -531,6 +681,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -539,8 +692,299 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
